--- a/data/taman_kelurahan.xlsx
+++ b/data/taman_kelurahan.xlsx
@@ -1,30 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\superapp-research\Documents\Super App Research\driver-side\location-choice-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF73650-D9C3-4500-8DF4-DF996CFF8E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8CF05E-12D2-4A72-81EE-0850E3F913C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="3540" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="taman_kelurahan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
-    <t>OBJECTID</t>
-  </si>
-  <si>
     <t>kelurahan</t>
   </si>
   <si>
@@ -481,13 +478,16 @@
     <t>Pasirjati</t>
   </si>
   <si>
-    <t>jumlah_taman</t>
+    <t>location_code</t>
+  </si>
+  <si>
+    <t>loc_parks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -856,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -864,7 +864,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -876,10 +876,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>153</v>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -899,7 +899,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -926,7 +926,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -935,7 +935,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -944,7 +944,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -953,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -962,7 +962,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -980,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -989,7 +989,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -998,7 +998,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -1007,7 +1007,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -1016,7 +1016,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -1025,7 +1025,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -1034,7 +1034,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -1043,7 +1043,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -1052,7 +1052,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -1061,7 +1061,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -1070,7 +1070,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -1079,7 +1079,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -1088,7 +1088,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -1097,7 +1097,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -1106,7 +1106,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -1115,7 +1115,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -1124,7 +1124,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -1133,7 +1133,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -1142,7 +1142,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -1151,7 +1151,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -1160,7 +1160,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -1169,7 +1169,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3"/>
     </row>
@@ -1178,7 +1178,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="3"/>
     </row>
@@ -1187,7 +1187,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3"/>
     </row>
@@ -1196,7 +1196,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="3"/>
     </row>
@@ -1205,7 +1205,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -1214,7 +1214,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="3"/>
     </row>
@@ -1223,7 +1223,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="3"/>
     </row>
@@ -1232,7 +1232,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2">
         <v>5</v>
@@ -1243,7 +1243,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2">
         <v>3</v>
@@ -1254,7 +1254,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2">
         <v>3</v>
@@ -1265,7 +1265,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="3"/>
     </row>
@@ -1274,7 +1274,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="3"/>
     </row>
@@ -1283,7 +1283,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="3"/>
     </row>
@@ -1292,7 +1292,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -1301,7 +1301,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="3"/>
     </row>
@@ -1310,7 +1310,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2">
         <v>3</v>
@@ -1321,7 +1321,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -1332,7 +1332,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="3"/>
     </row>
@@ -1341,7 +1341,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="3"/>
     </row>
@@ -1350,7 +1350,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="3"/>
     </row>
@@ -1359,7 +1359,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="3"/>
     </row>
@@ -1368,7 +1368,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="3"/>
     </row>
@@ -1377,7 +1377,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="3"/>
     </row>
@@ -1386,7 +1386,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" s="3"/>
     </row>
@@ -1395,7 +1395,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="3"/>
     </row>
@@ -1404,7 +1404,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="3"/>
     </row>
@@ -1413,7 +1413,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" s="3"/>
     </row>
@@ -1422,7 +1422,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" s="3"/>
     </row>
@@ -1431,7 +1431,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" s="3"/>
     </row>
@@ -1440,7 +1440,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -1451,7 +1451,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" s="3"/>
     </row>
@@ -1460,7 +1460,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" s="3"/>
     </row>
@@ -1469,7 +1469,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" s="3"/>
     </row>
@@ -1489,7 +1489,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" s="3"/>
     </row>
@@ -1498,7 +1498,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" s="3"/>
     </row>
@@ -1507,7 +1507,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="3"/>
     </row>
@@ -1516,7 +1516,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="3"/>
     </row>
@@ -1525,7 +1525,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="3"/>
     </row>
@@ -1534,7 +1534,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73" s="3"/>
     </row>
@@ -1554,7 +1554,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" s="3"/>
     </row>
@@ -1563,7 +1563,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" s="3"/>
     </row>
@@ -1572,7 +1572,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" s="3"/>
     </row>
@@ -1581,7 +1581,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" s="3"/>
     </row>
@@ -1590,7 +1590,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" s="3"/>
     </row>
@@ -1599,7 +1599,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" s="3"/>
     </row>
@@ -1608,7 +1608,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="3"/>
     </row>
@@ -1617,7 +1617,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" s="3"/>
     </row>
@@ -1637,7 +1637,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83" s="3"/>
     </row>
@@ -1646,7 +1646,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84" s="3"/>
     </row>
@@ -1655,7 +1655,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" s="3"/>
     </row>
@@ -1664,7 +1664,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" s="3"/>
     </row>
@@ -1673,7 +1673,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2">
         <v>1</v>
@@ -1684,7 +1684,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="3"/>
     </row>
@@ -1693,7 +1693,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" s="3"/>
     </row>
@@ -1702,7 +1702,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" s="3"/>
     </row>
@@ -1711,7 +1711,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91" s="3"/>
     </row>
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="3"/>
     </row>
@@ -1729,7 +1729,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93" s="2">
         <v>2</v>
@@ -1740,7 +1740,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94" s="3"/>
     </row>
@@ -1749,7 +1749,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C95" s="2">
         <v>2</v>
@@ -1760,7 +1760,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2">
         <v>4</v>
@@ -1771,7 +1771,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97" s="3"/>
     </row>
@@ -1780,7 +1780,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98" s="3"/>
     </row>
@@ -1789,7 +1789,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C100" s="3"/>
     </row>
@@ -1809,7 +1809,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C101" s="3"/>
     </row>
@@ -1818,7 +1818,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C102" s="3"/>
     </row>
@@ -1827,7 +1827,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C103" s="3"/>
     </row>
@@ -1836,7 +1836,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C104" s="3"/>
     </row>
@@ -1845,7 +1845,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C105" s="3"/>
     </row>
@@ -1854,7 +1854,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C106" s="3"/>
     </row>
@@ -1863,7 +1863,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C107" s="3"/>
     </row>
@@ -1872,7 +1872,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C108" s="3"/>
     </row>
@@ -1881,7 +1881,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C109" s="3"/>
     </row>
@@ -1890,7 +1890,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C110" s="3"/>
     </row>
@@ -1899,7 +1899,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C111" s="3"/>
     </row>
@@ -1908,7 +1908,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C112" s="3"/>
     </row>
@@ -1917,7 +1917,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C113" s="2">
         <v>2</v>
@@ -1928,7 +1928,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114" s="3"/>
     </row>
@@ -1937,7 +1937,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115" s="3"/>
     </row>
@@ -1946,7 +1946,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C116" s="3"/>
     </row>
@@ -1955,7 +1955,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117" s="3"/>
     </row>
@@ -1964,7 +1964,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118" s="3"/>
     </row>
@@ -1973,7 +1973,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C119" s="3"/>
     </row>
@@ -1982,7 +1982,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" s="2">
         <v>2</v>
@@ -1993,7 +1993,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C121" s="3"/>
     </row>
@@ -2002,7 +2002,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C122" s="3"/>
     </row>
@@ -2011,7 +2011,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C123" s="3"/>
     </row>
@@ -2020,7 +2020,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C124" s="3"/>
     </row>
@@ -2029,7 +2029,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C125" s="2">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C126" s="3"/>
     </row>
@@ -2049,7 +2049,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127" s="3"/>
     </row>
@@ -2058,7 +2058,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128" s="3"/>
     </row>
@@ -2067,7 +2067,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129" s="2">
         <v>1</v>
@@ -2078,7 +2078,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C130" s="2">
         <v>1</v>
@@ -2089,7 +2089,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C131" s="3"/>
     </row>
@@ -2098,7 +2098,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C132" s="3"/>
     </row>
@@ -2107,7 +2107,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C133" s="2">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C134" s="3"/>
     </row>
@@ -2127,7 +2127,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" s="3"/>
     </row>
@@ -2136,7 +2136,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C136" s="3"/>
     </row>
@@ -2145,7 +2145,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C137" s="3"/>
     </row>
@@ -2154,7 +2154,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C138" s="3"/>
     </row>
@@ -2163,7 +2163,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C139" s="3"/>
     </row>
@@ -2172,7 +2172,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C140" s="3"/>
     </row>
@@ -2181,7 +2181,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C141" s="3"/>
     </row>
@@ -2190,7 +2190,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C142" s="3"/>
     </row>
@@ -2199,7 +2199,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C143" s="3"/>
     </row>
@@ -2208,7 +2208,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C144" s="2">
         <v>3</v>
@@ -2219,7 +2219,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C145" s="2">
         <v>2</v>
@@ -2230,7 +2230,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146" s="3"/>
     </row>
@@ -2239,7 +2239,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C147" s="2">
         <v>3</v>
@@ -2250,7 +2250,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" s="2">
         <v>1</v>
@@ -2261,7 +2261,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C149" s="3"/>
     </row>
@@ -2270,7 +2270,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150" s="3"/>
     </row>
@@ -2279,7 +2279,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C151" s="2">
         <v>1</v>
@@ -2290,7 +2290,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C152" s="3"/>
     </row>
